--- a/Code/Results/Cases/Case_2_109/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_109/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.239888131708824</v>
+        <v>0.705157251606181</v>
       </c>
       <c r="C2">
-        <v>0.5974211095761746</v>
+        <v>0.2235001018007381</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.445764801815216</v>
+        <v>0.4293450414994595</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746121</v>
       </c>
       <c r="G2">
-        <v>0.2133429393295856</v>
+        <v>0.149740506781761</v>
       </c>
       <c r="H2">
-        <v>0.1503174848055764</v>
+        <v>0.3030882085640982</v>
       </c>
       <c r="I2">
-        <v>0.07383182406539923</v>
+        <v>0.1919372744917425</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.771111653409406</v>
+        <v>0.768435978604856</v>
       </c>
       <c r="O2">
-        <v>0.7194992371970415</v>
+        <v>0.8039366112629551</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.956576738106719</v>
+        <v>0.6152365081597111</v>
       </c>
       <c r="C3">
-        <v>0.5286319413777392</v>
+        <v>0.2013731579265254</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.242623689615357</v>
+        <v>0.3745221541837083</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.3878228170618172</v>
       </c>
       <c r="G3">
-        <v>0.1882441740664689</v>
+        <v>0.1457148568727789</v>
       </c>
       <c r="H3">
-        <v>0.144317884908034</v>
+        <v>0.3048400071515829</v>
       </c>
       <c r="I3">
-        <v>0.07632574057476837</v>
+        <v>0.1957187233693567</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7447458807569802</v>
+        <v>0.7611934265705145</v>
       </c>
       <c r="O3">
-        <v>0.6533723581836597</v>
+        <v>0.7988159371562347</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.782531595327271</v>
+        <v>0.5598181097710722</v>
       </c>
       <c r="C4">
-        <v>0.4863761653714107</v>
+        <v>0.1877066222612029</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.120013588218185</v>
+        <v>0.3409411314559634</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305169483</v>
       </c>
       <c r="G4">
-        <v>0.1735472071864095</v>
+        <v>0.1434356675502713</v>
       </c>
       <c r="H4">
-        <v>0.1410803282873871</v>
+        <v>0.3061232716694064</v>
       </c>
       <c r="I4">
-        <v>0.07833404510907549</v>
+        <v>0.1982350354935178</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7292503920035216</v>
+        <v>0.7570493373200264</v>
       </c>
       <c r="O4">
-        <v>0.6152091342812582</v>
+        <v>0.7965060733484393</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.711565086077087</v>
+        <v>0.5371841563026578</v>
       </c>
       <c r="C5">
-        <v>0.4691461365372334</v>
+        <v>0.1821174582842957</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.070501589104339</v>
+        <v>0.3272752423178531</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.1677215486278669</v>
+        <v>0.1425549428299746</v>
       </c>
       <c r="H5">
-        <v>0.1398661809093653</v>
+        <v>0.3066983381581778</v>
       </c>
       <c r="I5">
-        <v>0.07926526762548747</v>
+        <v>0.1993091804402436</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7231034123019668</v>
+        <v>0.7554371332630438</v>
       </c>
       <c r="O5">
-        <v>0.6002219337920707</v>
+        <v>0.7957736030234202</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.699778109773121</v>
+        <v>0.5334227984923245</v>
       </c>
       <c r="C6">
-        <v>0.4662843146034845</v>
+        <v>0.1811881865137082</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.062305267903781</v>
+        <v>0.3250071122517255</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.1667636257749621</v>
+        <v>0.1424115914948132</v>
       </c>
       <c r="H6">
-        <v>0.1396707279531952</v>
+        <v>0.3067969731452109</v>
       </c>
       <c r="I6">
-        <v>0.07942650937049756</v>
+        <v>0.1994904791842522</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.722092641612349</v>
+        <v>0.7551740627057626</v>
       </c>
       <c r="O6">
-        <v>0.5977660538364233</v>
+        <v>0.7956645608510655</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.781574708868277</v>
+        <v>0.5595130629048981</v>
       </c>
       <c r="C7">
-        <v>0.4861438446921227</v>
+        <v>0.18763132517185</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.119344121021783</v>
+        <v>0.3407567550554234</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.1734679988854921</v>
+        <v>0.1434235956612397</v>
       </c>
       <c r="H7">
-        <v>0.1410635369685878</v>
+        <v>0.3061308162828311</v>
       </c>
       <c r="I7">
-        <v>0.07834615623235663</v>
+        <v>0.1982493247297281</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7291668218691143</v>
+        <v>0.757027284124149</v>
       </c>
       <c r="O7">
-        <v>0.6150047877485179</v>
+        <v>0.796495350778784</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.142209298026586</v>
+        <v>0.6741963329208431</v>
       </c>
       <c r="C8">
-        <v>0.5737029375523264</v>
+        <v>0.2158876150416518</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.375231435325958</v>
+        <v>0.41042444412561</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813478</v>
       </c>
       <c r="G8">
-        <v>0.2045307971747832</v>
+        <v>0.1483122745402312</v>
       </c>
       <c r="H8">
-        <v>0.1481518493244067</v>
+        <v>0.3036490754560361</v>
       </c>
       <c r="I8">
-        <v>0.07458830575274611</v>
+        <v>0.1932006454992621</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7618726561282472</v>
+        <v>0.7658761133396297</v>
       </c>
       <c r="O8">
-        <v>0.6961622614071672</v>
+        <v>0.8019972712536401</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.849657603889568</v>
+        <v>0.8973958482533817</v>
       </c>
       <c r="C9">
-        <v>0.7455472633957925</v>
+        <v>0.2706485901978226</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.897845859810161</v>
+        <v>0.5477585498236408</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.2718839656498915</v>
+        <v>0.1594439504625882</v>
       </c>
       <c r="H9">
-        <v>0.1659323224448173</v>
+        <v>0.3004343427554375</v>
       </c>
       <c r="I9">
-        <v>0.07134594368405089</v>
+        <v>0.1848512732778662</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8318389126159076</v>
+        <v>0.7856165940875002</v>
       </c>
       <c r="O9">
-        <v>0.8770206144361907</v>
+        <v>0.8194512608771447</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.371093856438733</v>
+        <v>1.060290898796268</v>
       </c>
       <c r="C10">
-        <v>0.8723499063083864</v>
+        <v>0.3104748056302924</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.3007350969567</v>
+        <v>0.6492110486444744</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.3264614637379424</v>
+        <v>0.1685887604123195</v>
       </c>
       <c r="H10">
-        <v>0.1818718855781043</v>
+        <v>0.2990858896699251</v>
       </c>
       <c r="I10">
-        <v>0.07198822989978737</v>
+        <v>0.1796733173949896</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.88729473606287</v>
+        <v>0.8015580522005905</v>
       </c>
       <c r="O10">
-        <v>1.026678073604444</v>
+        <v>0.8364033044955761</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.609054749787333</v>
+        <v>1.13414842104828</v>
       </c>
       <c r="C11">
-        <v>0.9302726926334799</v>
+        <v>0.3285024546285911</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.489723840128804</v>
+        <v>0.6955103280049002</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.3526821149595492</v>
+        <v>0.1729641330302343</v>
       </c>
       <c r="H11">
-        <v>0.1898727149004884</v>
+        <v>0.2986938933893555</v>
       </c>
       <c r="I11">
-        <v>0.0730604050782091</v>
+        <v>0.177527695274577</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9135227603366332</v>
+        <v>0.8091190438736646</v>
       </c>
       <c r="O11">
-        <v>1.099273346060215</v>
+        <v>0.8450260095305282</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.699307804588329</v>
+        <v>1.162079946571396</v>
       </c>
       <c r="C12">
-        <v>0.9522519143460499</v>
+        <v>0.3353159330432618</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.562262724209361</v>
+        <v>0.7130658523356885</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.3628378598293835</v>
+        <v>0.1746523489593699</v>
       </c>
       <c r="H12">
-        <v>0.1930217591027201</v>
+        <v>0.2985774042529528</v>
       </c>
       <c r="I12">
-        <v>0.07358987673369199</v>
+        <v>0.1767455745297291</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9236092852897428</v>
+        <v>0.8120263207356402</v>
       </c>
       <c r="O12">
-        <v>1.127492581215222</v>
+        <v>0.8484233256438358</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.679863285939973</v>
+        <v>1.156066050984293</v>
       </c>
       <c r="C13">
-        <v>0.9475161053856596</v>
+        <v>0.3338491209366623</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.546594285200555</v>
+        <v>0.7092839061717768</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.360640117816871</v>
+        <v>0.1742873606225288</v>
       </c>
       <c r="H13">
-        <v>0.1923380556079763</v>
+        <v>0.298601069452161</v>
       </c>
       <c r="I13">
-        <v>0.07347016391489447</v>
+        <v>0.176912663847169</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9214299206778094</v>
+        <v>0.8113982312582237</v>
       </c>
       <c r="O13">
-        <v>1.121381292056498</v>
+        <v>0.8476857613590312</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.616476863086973</v>
+        <v>1.13644710938496</v>
       </c>
       <c r="C14">
-        <v>0.9320799665120774</v>
+        <v>0.3290632700587821</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.495671221760887</v>
+        <v>0.6969541609390433</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.3535129345480499</v>
+        <v>0.1731023928914084</v>
       </c>
       <c r="H14">
-        <v>0.1901293280270835</v>
+        <v>0.2986836687669694</v>
       </c>
       <c r="I14">
-        <v>0.07310142239455786</v>
+        <v>0.1774627397123716</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9143494238816032</v>
+        <v>0.8093573456381336</v>
       </c>
       <c r="O14">
-        <v>1.101579866189127</v>
+        <v>0.8453028554932871</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.57767045590515</v>
+        <v>1.124425112634981</v>
       </c>
       <c r="C15">
-        <v>0.9226310999112002</v>
+        <v>0.3261300692371378</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.464610905866223</v>
+        <v>0.6894048810885209</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.3491776540418101</v>
+        <v>0.1723806611527863</v>
       </c>
       <c r="H15">
-        <v>0.1887923145603594</v>
+        <v>0.2987384275483862</v>
       </c>
       <c r="I15">
-        <v>0.07289198825582588</v>
+        <v>0.1778036394268838</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9100328698640681</v>
+        <v>0.8081129759266759</v>
       </c>
       <c r="O15">
-        <v>1.089548349752533</v>
+        <v>0.8438604898062465</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.355560573404546</v>
+        <v>1.05545908478058</v>
       </c>
       <c r="C16">
-        <v>0.8685702206988708</v>
+        <v>0.309294827095016</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.288511710518407</v>
+        <v>0.6461884060520902</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.3247781012336475</v>
+        <v>0.1683071862924663</v>
       </c>
       <c r="H16">
-        <v>0.1813650582791837</v>
+        <v>0.2991159726122561</v>
       </c>
       <c r="I16">
-        <v>0.07193480002895924</v>
+        <v>0.1798177790149857</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8856017026126466</v>
+        <v>0.8010701133541573</v>
       </c>
       <c r="O16">
-        <v>1.0220313044411</v>
+        <v>0.83585821580877</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.219520008200618</v>
+        <v>1.01308696651148</v>
       </c>
       <c r="C17">
-        <v>0.8354741925040798</v>
+        <v>0.2989437927301992</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.182045627964499</v>
+        <v>0.6197156212240316</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.3101844677000543</v>
+        <v>0.1658636757819067</v>
       </c>
       <c r="H17">
-        <v>0.1770085663311818</v>
+        <v>0.2994043746570867</v>
       </c>
       <c r="I17">
-        <v>0.07155510916449259</v>
+        <v>0.1811072817977504</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.87087762728477</v>
+        <v>0.7968284652851594</v>
       </c>
       <c r="O17">
-        <v>0.9818226594723001</v>
+        <v>0.8311832008174065</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.141342105569436</v>
+        <v>0.9886927492303244</v>
       </c>
       <c r="C18">
-        <v>0.8164600783103708</v>
+        <v>0.2929817474495451</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.12133671712526</v>
+        <v>0.6045030059497805</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.3019200097648849</v>
+        <v>0.1644784798791079</v>
       </c>
       <c r="H18">
-        <v>0.1745726590837648</v>
+        <v>0.2995910904707841</v>
       </c>
       <c r="I18">
-        <v>0.07140940647661509</v>
+        <v>0.1818687102005079</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8625022553678718</v>
+        <v>0.7944179006128564</v>
       </c>
       <c r="O18">
-        <v>0.9591155270570368</v>
+        <v>0.8285799525021673</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.114883301657471</v>
+        <v>0.9804294026964726</v>
       </c>
       <c r="C19">
-        <v>0.8100256734056188</v>
+        <v>0.2909616680811666</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.100868018409855</v>
+        <v>0.5993545994325586</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.2991432735853721</v>
+        <v>0.1640129418626088</v>
       </c>
       <c r="H19">
-        <v>0.1737595638065983</v>
+        <v>0.2996578842200819</v>
       </c>
       <c r="I19">
-        <v>0.07137222924703579</v>
+        <v>0.1821299010510504</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8596822512113533</v>
+        <v>0.7936067371722118</v>
       </c>
       <c r="O19">
-        <v>0.9514970779809744</v>
+        <v>0.8277132234151452</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.233994382095261</v>
+        <v>1.017599931992493</v>
       </c>
       <c r="C20">
-        <v>0.8389949870116595</v>
+        <v>0.3000465502105953</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.193323485663129</v>
+        <v>0.6225322506753059</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.3117244088314095</v>
+        <v>0.1661216933638059</v>
       </c>
       <c r="H20">
-        <v>0.1774650152604522</v>
+        <v>0.2993715166601731</v>
       </c>
       <c r="I20">
-        <v>0.07158792648352374</v>
+        <v>0.1809679674872555</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8724352762346115</v>
+        <v>0.7972769848769872</v>
       </c>
       <c r="O20">
-        <v>0.9860589353912417</v>
+        <v>0.8316719871478426</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.635090840751673</v>
+        <v>1.142210677196715</v>
       </c>
       <c r="C21">
-        <v>0.9366126187792077</v>
+        <v>0.3304693513779</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.510600850872706</v>
+        <v>0.7005750683284191</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.3555999909325891</v>
+        <v>0.173449592504042</v>
       </c>
       <c r="H21">
-        <v>0.190774750123694</v>
+        <v>0.2986585393067429</v>
       </c>
       <c r="I21">
-        <v>0.07320628499164883</v>
+        <v>0.1773003429816882</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9164248545860971</v>
+        <v>0.8099556093788465</v>
       </c>
       <c r="O21">
-        <v>1.107375567868871</v>
+        <v>0.8459991794737221</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.898079037285413</v>
+        <v>1.223436264342979</v>
       </c>
       <c r="C22">
-        <v>1.000680283434548</v>
+        <v>0.3502753124512026</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2.72371584761251</v>
+        <v>0.7517153785289423</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.3856097853103222</v>
+        <v>0.1784217532966323</v>
       </c>
       <c r="H22">
-        <v>0.2001749583669863</v>
+        <v>0.2983788562352601</v>
       </c>
       <c r="I22">
-        <v>0.07498959061806687</v>
+        <v>0.1750805091553964</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.9460808933925193</v>
+        <v>0.8184986705214357</v>
       </c>
       <c r="O22">
-        <v>1.190954685322311</v>
+        <v>0.8561332142624565</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.757627583168698</v>
+        <v>1.180104812585455</v>
       </c>
       <c r="C23">
-        <v>0.9664576935701916</v>
+        <v>0.3397116618502594</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.609390445630638</v>
+        <v>0.7244079293063379</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.3694615431282244</v>
+        <v>0.1757511483096721</v>
       </c>
       <c r="H23">
-        <v>0.1950896183057722</v>
+        <v>0.2985110460576408</v>
       </c>
       <c r="I23">
-        <v>0.07396741391893968</v>
+        <v>0.1762489980889548</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.9301662581504928</v>
+        <v>0.8139156941000607</v>
       </c>
       <c r="O23">
-        <v>1.145925891406279</v>
+        <v>0.8506536467455419</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.227450415398152</v>
+        <v>1.015559725842309</v>
       </c>
       <c r="C24">
-        <v>0.8374031953852068</v>
+        <v>0.2995480281004745</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.188223220452969</v>
+        <v>0.6212588310387588</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.3110278121310159</v>
+        <v>0.1660049825576664</v>
       </c>
       <c r="H24">
-        <v>0.177258441575006</v>
+        <v>0.2993863066341049</v>
       </c>
       <c r="I24">
-        <v>0.07157286452464362</v>
+        <v>0.1810308889652106</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.8717307845572009</v>
+        <v>0.7970741218731945</v>
       </c>
       <c r="O24">
-        <v>0.9841424459349923</v>
+        <v>0.8314507437725638</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.658099115506673</v>
+        <v>0.8372017315912785</v>
       </c>
       <c r="C25">
-        <v>0.6989988679912074</v>
+        <v>0.2559049445981714</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.753633456099891</v>
+        <v>0.5105173743336024</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.2528590038580774</v>
+        <v>0.1562646028328842</v>
       </c>
       <c r="H25">
-        <v>0.1606565955322594</v>
+        <v>0.3011265071809959</v>
       </c>
       <c r="I25">
-        <v>0.07173109105851161</v>
+        <v>0.1869428359086864</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8122378596269897</v>
+        <v>0.7800224720654541</v>
       </c>
       <c r="O25">
-        <v>0.8254208656952358</v>
+        <v>0.8140092118242563</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_109/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_109/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.705157251606181</v>
+        <v>2.239888131708653</v>
       </c>
       <c r="C2">
-        <v>0.2235001018007381</v>
+        <v>0.597421109575663</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.4293450414994595</v>
+        <v>1.445764801815201</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746121</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.149740506781761</v>
+        <v>0.2133429393296495</v>
       </c>
       <c r="H2">
-        <v>0.3030882085640982</v>
+        <v>0.1503174848055764</v>
       </c>
       <c r="I2">
-        <v>0.1919372744917425</v>
+        <v>0.07383182406539923</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.768435978604856</v>
+        <v>0.771111653409406</v>
       </c>
       <c r="O2">
-        <v>0.8039366112629551</v>
+        <v>0.7194992371970557</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6152365081597111</v>
+        <v>1.956576738106719</v>
       </c>
       <c r="C3">
-        <v>0.2013731579265254</v>
+        <v>0.5286319413780518</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.3745221541837083</v>
+        <v>1.242623689615272</v>
       </c>
       <c r="F3">
-        <v>0.3878228170618172</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.1457148568727789</v>
+        <v>0.1882441740665328</v>
       </c>
       <c r="H3">
-        <v>0.3048400071515829</v>
+        <v>0.1443178849079132</v>
       </c>
       <c r="I3">
-        <v>0.1957187233693567</v>
+        <v>0.07632574057477015</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7611934265705145</v>
+        <v>0.7447458807569802</v>
       </c>
       <c r="O3">
-        <v>0.7988159371562347</v>
+        <v>0.6533723581836739</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5598181097710722</v>
+        <v>1.782531595327157</v>
       </c>
       <c r="C4">
-        <v>0.1877066222612029</v>
+        <v>0.4863761653711833</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3409411314559634</v>
+        <v>1.120013588218185</v>
       </c>
       <c r="F4">
-        <v>0.3531389305169483</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.1434356675502713</v>
+        <v>0.1735472071864095</v>
       </c>
       <c r="H4">
-        <v>0.3061232716694064</v>
+        <v>0.1410803282873943</v>
       </c>
       <c r="I4">
-        <v>0.1982350354935178</v>
+        <v>0.07833404510907549</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7570493373200264</v>
+        <v>0.7292503920035216</v>
       </c>
       <c r="O4">
-        <v>0.7965060733484393</v>
+        <v>0.615209134281244</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5371841563026578</v>
+        <v>1.711565086077087</v>
       </c>
       <c r="C5">
-        <v>0.1821174582842957</v>
+        <v>0.4691461365370344</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.3272752423178531</v>
+        <v>1.070501589104353</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.1425549428299746</v>
+        <v>0.1677215486278598</v>
       </c>
       <c r="H5">
-        <v>0.3066983381581778</v>
+        <v>0.1398661809093795</v>
       </c>
       <c r="I5">
-        <v>0.1993091804402436</v>
+        <v>0.07926526762548569</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7554371332630438</v>
+        <v>0.7231034123019953</v>
       </c>
       <c r="O5">
-        <v>0.7957736030234202</v>
+        <v>0.6002219337920707</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5334227984923245</v>
+        <v>1.699778109773121</v>
       </c>
       <c r="C6">
-        <v>0.1811881865137082</v>
+        <v>0.4662843146034277</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3250071122517255</v>
+        <v>1.062305267903781</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.1424115914948132</v>
+        <v>0.1667636257749692</v>
       </c>
       <c r="H6">
-        <v>0.3067969731452109</v>
+        <v>0.1396707279531952</v>
       </c>
       <c r="I6">
-        <v>0.1994904791842522</v>
+        <v>0.07942650937051177</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7551740627057626</v>
+        <v>0.7220926416123632</v>
       </c>
       <c r="O6">
-        <v>0.7956645608510655</v>
+        <v>0.5977660538363523</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5595130629048981</v>
+        <v>1.781574708868277</v>
       </c>
       <c r="C7">
-        <v>0.18763132517185</v>
+        <v>0.4861438446920943</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.3407567550554234</v>
+        <v>1.119344121021726</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.1434235956612397</v>
+        <v>0.173467998885485</v>
       </c>
       <c r="H7">
-        <v>0.3061308162828311</v>
+        <v>0.1410635369685949</v>
       </c>
       <c r="I7">
-        <v>0.1982493247297281</v>
+        <v>0.07834615623236907</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.757027284124149</v>
+        <v>0.7291668218691001</v>
       </c>
       <c r="O7">
-        <v>0.796495350778784</v>
+        <v>0.6150047877485463</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6741963329208431</v>
+        <v>2.142209298026444</v>
       </c>
       <c r="C8">
-        <v>0.2158876150416518</v>
+        <v>0.5737029375520706</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.41042444412561</v>
+        <v>1.375231435325944</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813478</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.1483122745402312</v>
+        <v>0.2045307971747761</v>
       </c>
       <c r="H8">
-        <v>0.3036490754560361</v>
+        <v>0.1481518493243925</v>
       </c>
       <c r="I8">
-        <v>0.1932006454992621</v>
+        <v>0.07458830575274433</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7658761133396297</v>
+        <v>0.761872656128233</v>
       </c>
       <c r="O8">
-        <v>0.8019972712536401</v>
+        <v>0.696162261407224</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8973958482533817</v>
+        <v>2.849657603889625</v>
       </c>
       <c r="C9">
-        <v>0.2706485901978226</v>
+        <v>0.7455472633955367</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.5477585498236408</v>
+        <v>1.897845859810147</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.1594439504625882</v>
+        <v>0.2718839656500052</v>
       </c>
       <c r="H9">
-        <v>0.3004343427554375</v>
+        <v>0.1659323224448173</v>
       </c>
       <c r="I9">
-        <v>0.1848512732778662</v>
+        <v>0.07134594368404024</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7856165940875002</v>
+        <v>0.8318389126158934</v>
       </c>
       <c r="O9">
-        <v>0.8194512608771447</v>
+        <v>0.8770206144361339</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.060290898796268</v>
+        <v>3.371093856438563</v>
       </c>
       <c r="C10">
-        <v>0.3104748056302924</v>
+        <v>0.8723499063081874</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.6492110486444744</v>
+        <v>2.300735096956714</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.1685887604123195</v>
+        <v>0.3264614637378855</v>
       </c>
       <c r="H10">
-        <v>0.2990858896699251</v>
+        <v>0.181871885578218</v>
       </c>
       <c r="I10">
-        <v>0.1796733173949896</v>
+        <v>0.07198822989979092</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8015580522005905</v>
+        <v>0.8872947360629411</v>
       </c>
       <c r="O10">
-        <v>0.8364033044955761</v>
+        <v>1.026678073604472</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.13414842104828</v>
+        <v>3.60905474978739</v>
       </c>
       <c r="C11">
-        <v>0.3285024546285911</v>
+        <v>0.9302726926331104</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.6955103280049002</v>
+        <v>2.489723840128747</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.1729641330302343</v>
+        <v>0.352682114959606</v>
       </c>
       <c r="H11">
-        <v>0.2986938933893555</v>
+        <v>0.1898727149004742</v>
       </c>
       <c r="I11">
-        <v>0.177527695274577</v>
+        <v>0.0730604050782091</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8091190438736646</v>
+        <v>0.91352276033669</v>
       </c>
       <c r="O11">
-        <v>0.8450260095305282</v>
+        <v>1.099273346060158</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.162079946571396</v>
+        <v>3.699307804588443</v>
       </c>
       <c r="C12">
-        <v>0.3353159330432618</v>
+        <v>0.9522519143461068</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.7130658523356885</v>
+        <v>2.562262724209347</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.1746523489593699</v>
+        <v>0.3628378598293835</v>
       </c>
       <c r="H12">
-        <v>0.2985774042529528</v>
+        <v>0.1930217591028338</v>
       </c>
       <c r="I12">
-        <v>0.1767455745297291</v>
+        <v>0.07358987673369199</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8120263207356402</v>
+        <v>0.9236092852897286</v>
       </c>
       <c r="O12">
-        <v>0.8484233256438358</v>
+        <v>1.127492581215222</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.156066050984293</v>
+        <v>3.679863285939916</v>
       </c>
       <c r="C13">
-        <v>0.3338491209366623</v>
+        <v>0.9475161053856596</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.7092839061717768</v>
+        <v>2.546594285200527</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.1742873606225288</v>
+        <v>0.3606401178169421</v>
       </c>
       <c r="H13">
-        <v>0.298601069452161</v>
+        <v>0.1923380556079763</v>
       </c>
       <c r="I13">
-        <v>0.176912663847169</v>
+        <v>0.07347016391487671</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8113982312582237</v>
+        <v>0.9214299206777383</v>
       </c>
       <c r="O13">
-        <v>0.8476857613590312</v>
+        <v>1.121381292056554</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.13644710938496</v>
+        <v>3.616476863087087</v>
       </c>
       <c r="C14">
-        <v>0.3290632700587821</v>
+        <v>0.9320799665123616</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.6969541609390433</v>
+        <v>2.495671221760887</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.1731023928914084</v>
+        <v>0.353512934547993</v>
       </c>
       <c r="H14">
-        <v>0.2986836687669694</v>
+        <v>0.1901293280270835</v>
       </c>
       <c r="I14">
-        <v>0.1774627397123716</v>
+        <v>0.07310142239456852</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8093573456381336</v>
+        <v>0.9143494238816601</v>
       </c>
       <c r="O14">
-        <v>0.8453028554932871</v>
+        <v>1.10157986618907</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.124425112634981</v>
+        <v>3.577670455905263</v>
       </c>
       <c r="C15">
-        <v>0.3261300692371378</v>
+        <v>0.9226310999116549</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.6894048810885209</v>
+        <v>2.464610905866238</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.1723806611527863</v>
+        <v>0.3491776540418243</v>
       </c>
       <c r="H15">
-        <v>0.2987384275483862</v>
+        <v>0.1887923145603594</v>
       </c>
       <c r="I15">
-        <v>0.1778036394268838</v>
+        <v>0.07289198825583654</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8081129759266759</v>
+        <v>0.910032869864196</v>
       </c>
       <c r="O15">
-        <v>0.8438604898062465</v>
+        <v>1.089548349752476</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05545908478058</v>
+        <v>3.355560573404603</v>
       </c>
       <c r="C16">
-        <v>0.309294827095016</v>
+        <v>0.8685702206985582</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.6461884060520902</v>
+        <v>2.28851171051835</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.1683071862924663</v>
+        <v>0.3247781012336475</v>
       </c>
       <c r="H16">
-        <v>0.2991159726122561</v>
+        <v>0.1813650582793116</v>
       </c>
       <c r="I16">
-        <v>0.1798177790149857</v>
+        <v>0.07193480002895924</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8010701133541573</v>
+        <v>0.8856017026126324</v>
       </c>
       <c r="O16">
-        <v>0.83585821580877</v>
+        <v>1.0220313044411</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.01308696651148</v>
+        <v>3.219520008200561</v>
       </c>
       <c r="C17">
-        <v>0.2989437927301992</v>
+        <v>0.8354741925043925</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.6197156212240316</v>
+        <v>2.182045627964499</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>0.1658636757819067</v>
+        <v>0.310184467699969</v>
       </c>
       <c r="H17">
-        <v>0.2994043746570867</v>
+        <v>0.1770085663310539</v>
       </c>
       <c r="I17">
-        <v>0.1811072817977504</v>
+        <v>0.07155510916449259</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7968284652851594</v>
+        <v>0.8708776272847558</v>
       </c>
       <c r="O17">
-        <v>0.8311832008174065</v>
+        <v>0.9818226594723285</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9886927492303244</v>
+        <v>3.141342105569493</v>
       </c>
       <c r="C18">
-        <v>0.2929817474495451</v>
+        <v>0.8164600783104277</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.6045030059497805</v>
+        <v>2.121336717125288</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.1644784798791079</v>
+        <v>0.3019200097649275</v>
       </c>
       <c r="H18">
-        <v>0.2995910904707841</v>
+        <v>0.1745726590837648</v>
       </c>
       <c r="I18">
-        <v>0.1818687102005079</v>
+        <v>0.07140940647662219</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7944179006128564</v>
+        <v>0.8625022553678434</v>
       </c>
       <c r="O18">
-        <v>0.8285799525021673</v>
+        <v>0.95911552705698</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9804294026964726</v>
+        <v>3.114883301657585</v>
       </c>
       <c r="C19">
-        <v>0.2909616680811666</v>
+        <v>0.8100256734060736</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.5993545994325586</v>
+        <v>2.100868018409827</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.1640129418626088</v>
+        <v>0.2991432735853579</v>
       </c>
       <c r="H19">
-        <v>0.2996578842200819</v>
+        <v>0.1737595638065983</v>
       </c>
       <c r="I19">
-        <v>0.1821299010510504</v>
+        <v>0.07137222924703579</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7936067371722118</v>
+        <v>0.8596822512113533</v>
       </c>
       <c r="O19">
-        <v>0.8277132234151452</v>
+        <v>0.9514970779809744</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.017599931992493</v>
+        <v>3.233994382095034</v>
       </c>
       <c r="C20">
-        <v>0.3000465502105953</v>
+        <v>0.8389949870117164</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.6225322506753059</v>
+        <v>2.193323485663143</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.1661216933638059</v>
+        <v>0.3117244088314521</v>
       </c>
       <c r="H20">
-        <v>0.2993715166601731</v>
+        <v>0.1774650152604522</v>
       </c>
       <c r="I20">
-        <v>0.1809679674872555</v>
+        <v>0.07158792648353085</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7972769848769872</v>
+        <v>0.8724352762345973</v>
       </c>
       <c r="O20">
-        <v>0.8316719871478426</v>
+        <v>0.9860589353912417</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.142210677196715</v>
+        <v>3.635090840751673</v>
       </c>
       <c r="C21">
-        <v>0.3304693513779</v>
+        <v>0.9366126187794066</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.7005750683284191</v>
+        <v>2.510600850872734</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.173449592504042</v>
+        <v>0.3555999909326317</v>
       </c>
       <c r="H21">
-        <v>0.2986585393067429</v>
+        <v>0.1907747501235804</v>
       </c>
       <c r="I21">
-        <v>0.1773003429816882</v>
+        <v>0.07320628499164883</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8099556093788465</v>
+        <v>0.9164248545860971</v>
       </c>
       <c r="O21">
-        <v>0.8459991794737221</v>
+        <v>1.107375567868814</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.223436264342979</v>
+        <v>3.89807903728547</v>
       </c>
       <c r="C22">
-        <v>0.3502753124512026</v>
+        <v>1.000680283434747</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.7517153785289423</v>
+        <v>2.72371584761251</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.1784217532966323</v>
+        <v>0.3856097853103222</v>
       </c>
       <c r="H22">
-        <v>0.2983788562352601</v>
+        <v>0.2001749583669863</v>
       </c>
       <c r="I22">
-        <v>0.1750805091553964</v>
+        <v>0.07498959061806332</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.8184986705214357</v>
+        <v>0.9460808933924341</v>
       </c>
       <c r="O22">
-        <v>0.8561332142624565</v>
+        <v>1.190954685322282</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.180104812585455</v>
+        <v>3.757627583168812</v>
       </c>
       <c r="C23">
-        <v>0.3397116618502594</v>
+        <v>0.9664576935703906</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.7244079293063379</v>
+        <v>2.609390445630652</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.1757511483096721</v>
+        <v>0.3694615431282529</v>
       </c>
       <c r="H23">
-        <v>0.2985110460576408</v>
+        <v>0.1950896183056727</v>
       </c>
       <c r="I23">
-        <v>0.1762489980889548</v>
+        <v>0.07396741391895034</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.8139156941000607</v>
+        <v>0.9301662581504928</v>
       </c>
       <c r="O23">
-        <v>0.8506536467455419</v>
+        <v>1.145925891406335</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.015559725842309</v>
+        <v>3.227450415398209</v>
       </c>
       <c r="C24">
-        <v>0.2995480281004745</v>
+        <v>0.8374031953852352</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.6212588310387588</v>
+        <v>2.188223220452997</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.1660049825576664</v>
+        <v>0.3110278121310017</v>
       </c>
       <c r="H24">
-        <v>0.2993863066341049</v>
+        <v>0.177258441575006</v>
       </c>
       <c r="I24">
-        <v>0.1810308889652106</v>
+        <v>0.07157286452465783</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7970741218731945</v>
+        <v>0.8717307845571867</v>
       </c>
       <c r="O24">
-        <v>0.8314507437725638</v>
+        <v>0.9841424459349355</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8372017315912785</v>
+        <v>2.658099115506786</v>
       </c>
       <c r="C25">
-        <v>0.2559049445981714</v>
+        <v>0.6989988679911505</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.5105173743336024</v>
+        <v>1.753633456099934</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.1562646028328842</v>
+        <v>0.2528590038580276</v>
       </c>
       <c r="H25">
-        <v>0.3011265071809959</v>
+        <v>0.1606565955322594</v>
       </c>
       <c r="I25">
-        <v>0.1869428359086864</v>
+        <v>0.07173109105851161</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7800224720654541</v>
+        <v>0.8122378596269328</v>
       </c>
       <c r="O25">
-        <v>0.8140092118242563</v>
+        <v>0.8254208656952358</v>
       </c>
     </row>
   </sheetData>
